--- a/InputData/io-model/FtPICM/Fuel to Producing ISIC Code Map.xlsx
+++ b/InputData/io-model/FtPICM/Fuel to Producing ISIC Code Map.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\io-model\FtPICM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\io-model\FtPICM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45E8A33-0F1C-4B2E-9B68-FBB2DA49707F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17775" yWindow="3195" windowWidth="28755" windowHeight="18330" xr2:uid="{C83EE60B-9228-40F3-BF3B-C6551E20DC4B}"/>
+    <workbookView xWindow="17775" yWindow="3195" windowWidth="28755" windowHeight="18330"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="FtPICM" sheetId="2" r:id="rId2"/>
+    <sheet name="Pre ISIC Consolidation" sheetId="3" r:id="rId2"/>
+    <sheet name="FtPICM" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="76">
   <si>
     <t>Source:</t>
   </si>
@@ -255,11 +255,20 @@
   <si>
     <t>This variable specifies which ISIC code produces which fuel type.  It is used in revenue assignments for the I/O model.</t>
   </si>
+  <si>
+    <t>EU ISIC Consolidation</t>
+  </si>
+  <si>
+    <t>Default EPS ISIC Groupings</t>
+  </si>
+  <si>
+    <t>EU ISIC Groupings</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,7 +294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +304,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -321,6 +336,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,19 +651,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299A1A1A-2754-497E-93D3-216BB1DC7139}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,32 +671,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -691,26 +708,3232 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AB8F23-B852-4026-9E84-3ED7FB8D44F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ25" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ26" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AQ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="43" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.265625" customWidth="1"/>
+    <col min="2" max="43" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -841,2754 +4064,3636 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>46</v>
       </c>
       <c r="B2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>0</v>
       </c>
       <c r="C2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>0</v>
       </c>
       <c r="D2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>0</v>
       </c>
       <c r="E2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>0</v>
       </c>
       <c r="F2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
         <v>0</v>
       </c>
       <c r="G2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
         <v>0</v>
       </c>
       <c r="H2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
         <v>0</v>
       </c>
       <c r="I2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
         <v>0</v>
       </c>
       <c r="J2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
         <v>0</v>
       </c>
       <c r="K2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
         <v>0</v>
       </c>
       <c r="L2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
         <v>0</v>
       </c>
       <c r="M2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
         <v>0</v>
       </c>
       <c r="N2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
         <v>0</v>
       </c>
       <c r="O2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
         <v>0</v>
       </c>
       <c r="P2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
         <v>0</v>
       </c>
       <c r="S2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
         <v>0</v>
       </c>
       <c r="T2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
         <v>0</v>
       </c>
       <c r="U2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
         <v>0</v>
       </c>
       <c r="V2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
         <v>0</v>
       </c>
       <c r="W2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
         <v>0</v>
       </c>
       <c r="X2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z2" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>1</v>
       </c>
       <c r="AA2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ2">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>47</v>
       </c>
       <c r="B3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>0</v>
       </c>
       <c r="C3" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>1</v>
       </c>
       <c r="D3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>0</v>
       </c>
       <c r="E3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>0</v>
       </c>
       <c r="F3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
         <v>0</v>
       </c>
       <c r="G3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
         <v>0</v>
       </c>
       <c r="H3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
         <v>0</v>
       </c>
       <c r="I3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
         <v>0</v>
       </c>
       <c r="J3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
         <v>0</v>
       </c>
       <c r="K3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
         <v>0</v>
       </c>
       <c r="L3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
         <v>0</v>
       </c>
       <c r="M3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
         <v>0</v>
       </c>
       <c r="N3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
         <v>0</v>
       </c>
       <c r="O3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
         <v>0</v>
       </c>
       <c r="P3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
         <v>0</v>
       </c>
       <c r="S3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
         <v>0</v>
       </c>
       <c r="T3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
         <v>0</v>
       </c>
       <c r="U3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
         <v>0</v>
       </c>
       <c r="V3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
         <v>0</v>
       </c>
       <c r="W3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
         <v>0</v>
       </c>
       <c r="X3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ3">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>48</v>
       </c>
       <c r="B4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>0</v>
       </c>
       <c r="C4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>0</v>
       </c>
       <c r="D4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>0</v>
       </c>
       <c r="E4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>0</v>
       </c>
       <c r="F4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
         <v>0</v>
       </c>
       <c r="G4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
         <v>0</v>
       </c>
       <c r="H4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
         <v>0</v>
       </c>
       <c r="I4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
         <v>0</v>
       </c>
       <c r="J4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
         <v>0</v>
       </c>
       <c r="K4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
         <v>0</v>
       </c>
       <c r="L4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
         <v>0</v>
       </c>
       <c r="M4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
         <v>0</v>
       </c>
       <c r="N4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
         <v>0</v>
       </c>
       <c r="O4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
         <v>0</v>
       </c>
       <c r="P4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
         <v>0</v>
       </c>
       <c r="S4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
         <v>0</v>
       </c>
       <c r="T4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
         <v>0</v>
       </c>
       <c r="U4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
         <v>0</v>
       </c>
       <c r="V4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
         <v>0</v>
       </c>
       <c r="W4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
         <v>0</v>
       </c>
       <c r="X4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA4" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>1</v>
       </c>
       <c r="AB4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>49</v>
       </c>
       <c r="B5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>0</v>
       </c>
       <c r="C5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
       <c r="Z5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ5">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>50</v>
       </c>
       <c r="B6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>0</v>
       </c>
       <c r="C6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>0</v>
       </c>
       <c r="D6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>0</v>
       </c>
       <c r="E6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>0</v>
       </c>
       <c r="F6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
         <v>0</v>
       </c>
       <c r="G6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
         <v>0</v>
       </c>
       <c r="H6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
         <v>0</v>
       </c>
       <c r="I6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
         <v>0</v>
       </c>
       <c r="J6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
         <v>0</v>
       </c>
       <c r="K6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
         <v>0</v>
       </c>
       <c r="L6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
         <v>0</v>
       </c>
       <c r="M6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
         <v>0</v>
       </c>
       <c r="N6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
         <v>0</v>
       </c>
       <c r="O6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
         <v>0</v>
       </c>
       <c r="P6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
         <v>0</v>
       </c>
       <c r="S6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
         <v>0</v>
       </c>
       <c r="T6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
         <v>0</v>
       </c>
       <c r="U6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
         <v>0</v>
       </c>
       <c r="V6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
         <v>0</v>
       </c>
       <c r="W6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
         <v>0</v>
       </c>
       <c r="X6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z6" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>1</v>
       </c>
       <c r="AA6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ6">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>51</v>
       </c>
       <c r="B7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>0</v>
       </c>
       <c r="C7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>0</v>
       </c>
       <c r="D7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>0</v>
       </c>
       <c r="E7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>0</v>
       </c>
       <c r="F7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
         <v>0</v>
       </c>
       <c r="G7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
         <v>0</v>
       </c>
       <c r="H7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
         <v>0</v>
       </c>
       <c r="I7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
         <v>0</v>
       </c>
       <c r="J7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
         <v>0</v>
       </c>
       <c r="K7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
         <v>0</v>
       </c>
       <c r="L7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
         <v>0</v>
       </c>
       <c r="M7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
         <v>0</v>
       </c>
       <c r="N7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
         <v>0</v>
       </c>
       <c r="O7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
         <v>0</v>
       </c>
       <c r="P7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
         <v>0</v>
       </c>
       <c r="S7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
         <v>0</v>
       </c>
       <c r="T7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
         <v>0</v>
       </c>
       <c r="U7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
         <v>0</v>
       </c>
       <c r="V7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
         <v>0</v>
       </c>
       <c r="W7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
         <v>0</v>
       </c>
       <c r="X7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z7" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>1</v>
       </c>
       <c r="AA7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ7">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>52</v>
       </c>
       <c r="B8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>0</v>
       </c>
       <c r="C8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>0</v>
       </c>
       <c r="D8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>0</v>
       </c>
       <c r="E8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>0</v>
       </c>
       <c r="F8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
         <v>0</v>
       </c>
       <c r="G8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
         <v>0</v>
       </c>
       <c r="H8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
         <v>0</v>
       </c>
       <c r="I8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
         <v>0</v>
       </c>
       <c r="J8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
         <v>0</v>
       </c>
       <c r="K8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
         <v>0</v>
       </c>
       <c r="L8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
         <v>0</v>
       </c>
       <c r="M8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
         <v>0</v>
       </c>
       <c r="N8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
         <v>0</v>
       </c>
       <c r="O8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
         <v>0</v>
       </c>
       <c r="P8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
         <v>0</v>
       </c>
       <c r="S8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
         <v>0</v>
       </c>
       <c r="T8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
         <v>0</v>
       </c>
       <c r="U8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
         <v>0</v>
       </c>
       <c r="V8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
         <v>0</v>
       </c>
       <c r="W8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
         <v>0</v>
       </c>
       <c r="X8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z8" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>1</v>
       </c>
       <c r="AA8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ8">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>1</v>
       </c>
       <c r="C9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>0</v>
       </c>
       <c r="D9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>0</v>
       </c>
       <c r="E9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>0</v>
       </c>
       <c r="F9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
         <v>0</v>
       </c>
       <c r="G9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
         <v>0</v>
       </c>
       <c r="H9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
         <v>0</v>
       </c>
       <c r="I9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
         <v>0</v>
       </c>
       <c r="J9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
         <v>0</v>
       </c>
       <c r="K9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
         <v>0</v>
       </c>
       <c r="L9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
         <v>0</v>
       </c>
       <c r="M9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
         <v>0</v>
       </c>
       <c r="N9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
         <v>0</v>
       </c>
       <c r="O9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
         <v>0</v>
       </c>
       <c r="P9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
         <v>0</v>
       </c>
       <c r="S9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
         <v>0</v>
       </c>
       <c r="T9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
         <v>0</v>
       </c>
       <c r="U9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
         <v>0</v>
       </c>
       <c r="V9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
         <v>0</v>
       </c>
       <c r="W9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
         <v>0</v>
       </c>
       <c r="X9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ9">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>54</v>
       </c>
       <c r="B10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>0</v>
       </c>
       <c r="C10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>0</v>
       </c>
       <c r="D10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>0</v>
       </c>
       <c r="E10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>0</v>
       </c>
       <c r="F10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
         <v>0</v>
       </c>
       <c r="G10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
         <v>0</v>
       </c>
       <c r="H10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
         <v>0</v>
       </c>
       <c r="I10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
         <v>0</v>
       </c>
       <c r="J10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
         <v>0</v>
       </c>
       <c r="K10" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
         <v>1</v>
       </c>
       <c r="L10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
         <v>0</v>
       </c>
       <c r="M10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
         <v>0</v>
       </c>
       <c r="N10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
         <v>0</v>
       </c>
       <c r="O10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
         <v>0</v>
       </c>
       <c r="P10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
         <v>0</v>
       </c>
       <c r="S10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
         <v>0</v>
       </c>
       <c r="T10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
         <v>0</v>
       </c>
       <c r="U10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
         <v>0</v>
       </c>
       <c r="V10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
         <v>0</v>
       </c>
       <c r="W10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
         <v>0</v>
       </c>
       <c r="X10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ10">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>0</v>
       </c>
       <c r="C11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>0</v>
       </c>
       <c r="D11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>0</v>
       </c>
       <c r="E11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>0</v>
       </c>
       <c r="F11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
         <v>0</v>
       </c>
       <c r="G11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
         <v>0</v>
       </c>
       <c r="H11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
         <v>0</v>
       </c>
       <c r="I11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
         <v>0</v>
       </c>
       <c r="J11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
         <v>0</v>
       </c>
       <c r="K11" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
         <v>1</v>
       </c>
       <c r="L11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
         <v>0</v>
       </c>
       <c r="M11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
         <v>0</v>
       </c>
       <c r="N11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
         <v>0</v>
       </c>
       <c r="O11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
         <v>0</v>
       </c>
       <c r="P11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
         <v>0</v>
       </c>
       <c r="S11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
         <v>0</v>
       </c>
       <c r="T11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
         <v>0</v>
       </c>
       <c r="U11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
         <v>0</v>
       </c>
       <c r="V11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
         <v>0</v>
       </c>
       <c r="W11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
         <v>0</v>
       </c>
       <c r="X11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>56</v>
       </c>
       <c r="B12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>0</v>
       </c>
       <c r="C12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>0</v>
       </c>
       <c r="D12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>0</v>
       </c>
       <c r="E12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>0</v>
       </c>
       <c r="F12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
         <v>0</v>
       </c>
       <c r="G12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
         <v>0</v>
       </c>
       <c r="H12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
         <v>0</v>
       </c>
       <c r="I12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
         <v>0</v>
       </c>
       <c r="J12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
         <v>0</v>
       </c>
       <c r="K12" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
         <v>1</v>
       </c>
       <c r="L12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
         <v>0</v>
       </c>
       <c r="M12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
         <v>0</v>
       </c>
       <c r="N12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
         <v>0</v>
       </c>
       <c r="O12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
         <v>0</v>
       </c>
       <c r="P12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
         <v>0</v>
       </c>
       <c r="S12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
         <v>0</v>
       </c>
       <c r="T12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
         <v>0</v>
       </c>
       <c r="U12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
         <v>0</v>
       </c>
       <c r="V12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
         <v>0</v>
       </c>
       <c r="W12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
         <v>0</v>
       </c>
       <c r="X12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ12">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>57</v>
       </c>
       <c r="B13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>0</v>
       </c>
       <c r="C13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>0</v>
       </c>
       <c r="D13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>0</v>
       </c>
       <c r="E13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>0</v>
       </c>
       <c r="F13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
         <v>0</v>
       </c>
       <c r="G13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
         <v>0</v>
       </c>
       <c r="H13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
         <v>0</v>
       </c>
       <c r="I13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
         <v>0</v>
       </c>
       <c r="J13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
         <v>0</v>
       </c>
       <c r="K13" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
         <v>1</v>
       </c>
       <c r="L13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
         <v>0</v>
       </c>
       <c r="M13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
         <v>0</v>
       </c>
       <c r="N13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
         <v>0</v>
       </c>
       <c r="O13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
         <v>0</v>
       </c>
       <c r="P13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
         <v>0</v>
       </c>
       <c r="S13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
         <v>0</v>
       </c>
       <c r="T13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
         <v>0</v>
       </c>
       <c r="U13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
         <v>0</v>
       </c>
       <c r="V13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
         <v>0</v>
       </c>
       <c r="W13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
         <v>0</v>
       </c>
       <c r="X13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ13">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>58</v>
       </c>
       <c r="B14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>0</v>
       </c>
       <c r="C14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>0</v>
       </c>
       <c r="D14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>0</v>
       </c>
       <c r="E14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>0</v>
       </c>
       <c r="F14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
         <v>0</v>
       </c>
       <c r="G14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
         <v>0</v>
       </c>
       <c r="H14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
         <v>0</v>
       </c>
       <c r="I14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
         <v>0</v>
       </c>
       <c r="J14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
         <v>0</v>
       </c>
       <c r="K14" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
         <v>1</v>
       </c>
       <c r="L14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
         <v>0</v>
       </c>
       <c r="M14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
         <v>0</v>
       </c>
       <c r="N14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
         <v>0</v>
       </c>
       <c r="O14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
         <v>0</v>
       </c>
       <c r="P14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
         <v>0</v>
       </c>
       <c r="S14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
         <v>0</v>
       </c>
       <c r="T14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
         <v>0</v>
       </c>
       <c r="U14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
         <v>0</v>
       </c>
       <c r="V14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
         <v>0</v>
       </c>
       <c r="W14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
         <v>0</v>
       </c>
       <c r="X14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ14">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>59</v>
       </c>
       <c r="B15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>0</v>
       </c>
       <c r="C15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>0</v>
       </c>
       <c r="D15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>0</v>
       </c>
       <c r="E15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>0</v>
       </c>
       <c r="F15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
         <v>0</v>
       </c>
       <c r="G15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
         <v>0</v>
       </c>
       <c r="H15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
         <v>0</v>
       </c>
       <c r="I15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
         <v>0</v>
       </c>
       <c r="J15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
         <v>0</v>
       </c>
       <c r="K15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
         <v>0</v>
       </c>
       <c r="L15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
         <v>0</v>
       </c>
       <c r="M15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
         <v>0</v>
       </c>
       <c r="N15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
         <v>0</v>
       </c>
       <c r="O15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
         <v>0</v>
       </c>
       <c r="P15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
         <v>0</v>
       </c>
       <c r="S15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
         <v>0</v>
       </c>
       <c r="T15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
         <v>0</v>
       </c>
       <c r="U15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
         <v>0</v>
       </c>
       <c r="V15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
         <v>0</v>
       </c>
       <c r="W15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
         <v>0</v>
       </c>
       <c r="X15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA15" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>1</v>
       </c>
       <c r="AB15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ15">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>60</v>
       </c>
       <c r="B16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>0</v>
       </c>
       <c r="C16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>0</v>
       </c>
       <c r="D16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>0</v>
       </c>
       <c r="E16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>0</v>
       </c>
       <c r="F16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
         <v>0</v>
       </c>
       <c r="G16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
         <v>0</v>
       </c>
       <c r="H16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
         <v>0</v>
       </c>
       <c r="I16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
         <v>0</v>
       </c>
       <c r="J16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
         <v>0</v>
       </c>
       <c r="K16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
         <v>0</v>
       </c>
       <c r="L16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
         <v>0</v>
       </c>
       <c r="M16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
         <v>0</v>
       </c>
       <c r="N16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
         <v>0</v>
       </c>
       <c r="O16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
         <v>0</v>
       </c>
       <c r="P16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
         <v>0</v>
       </c>
       <c r="S16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
         <v>0</v>
       </c>
       <c r="T16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
         <v>0</v>
       </c>
       <c r="U16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
         <v>0</v>
       </c>
       <c r="V16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
         <v>0</v>
       </c>
       <c r="W16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
         <v>0</v>
       </c>
       <c r="X16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z16" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>1</v>
       </c>
       <c r="AA16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ16">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>61</v>
       </c>
       <c r="B17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>0</v>
       </c>
       <c r="C17" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>1</v>
       </c>
       <c r="D17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>0</v>
       </c>
       <c r="E17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>0</v>
       </c>
       <c r="F17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
         <v>0</v>
       </c>
       <c r="G17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
         <v>0</v>
       </c>
       <c r="H17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
         <v>0</v>
       </c>
       <c r="I17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
         <v>0</v>
       </c>
       <c r="J17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
         <v>0</v>
       </c>
       <c r="K17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
         <v>0</v>
       </c>
       <c r="L17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
         <v>0</v>
       </c>
       <c r="M17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
         <v>0</v>
       </c>
       <c r="N17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
         <v>0</v>
       </c>
       <c r="O17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
         <v>0</v>
       </c>
       <c r="P17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
         <v>0</v>
       </c>
       <c r="S17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
         <v>0</v>
       </c>
       <c r="T17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
         <v>0</v>
       </c>
       <c r="U17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
         <v>0</v>
       </c>
       <c r="V17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
         <v>0</v>
       </c>
       <c r="W17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
         <v>0</v>
       </c>
       <c r="X17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ17">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>62</v>
       </c>
       <c r="B18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>0</v>
       </c>
       <c r="C18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>0</v>
       </c>
       <c r="D18" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>1</v>
       </c>
       <c r="E18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>0</v>
       </c>
       <c r="F18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
         <v>0</v>
       </c>
       <c r="G18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
         <v>0</v>
       </c>
       <c r="H18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
         <v>0</v>
       </c>
       <c r="I18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
         <v>0</v>
       </c>
       <c r="J18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
         <v>0</v>
       </c>
       <c r="K18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
         <v>0</v>
       </c>
       <c r="L18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
         <v>0</v>
       </c>
       <c r="M18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
         <v>0</v>
       </c>
       <c r="N18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
         <v>0</v>
       </c>
       <c r="O18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
         <v>0</v>
       </c>
       <c r="P18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
         <v>0</v>
       </c>
       <c r="S18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
         <v>0</v>
       </c>
       <c r="T18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
         <v>0</v>
       </c>
       <c r="U18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
         <v>0</v>
       </c>
       <c r="V18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
         <v>0</v>
       </c>
       <c r="W18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
         <v>0</v>
       </c>
       <c r="X18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ18">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>63</v>
       </c>
       <c r="B19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>0</v>
       </c>
       <c r="C19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>0</v>
       </c>
       <c r="D19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>0</v>
       </c>
       <c r="E19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>0</v>
       </c>
       <c r="F19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
         <v>0</v>
       </c>
       <c r="G19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
         <v>0</v>
       </c>
       <c r="H19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
         <v>0</v>
       </c>
       <c r="I19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
         <v>0</v>
       </c>
       <c r="J19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
         <v>0</v>
       </c>
       <c r="K19" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
         <v>1</v>
       </c>
       <c r="L19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
         <v>0</v>
       </c>
       <c r="M19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
         <v>0</v>
       </c>
       <c r="N19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
         <v>0</v>
       </c>
       <c r="O19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
         <v>0</v>
       </c>
       <c r="P19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
         <v>0</v>
       </c>
       <c r="S19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
         <v>0</v>
       </c>
       <c r="T19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
         <v>0</v>
       </c>
       <c r="U19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
         <v>0</v>
       </c>
       <c r="V19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
         <v>0</v>
       </c>
       <c r="W19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
         <v>0</v>
       </c>
       <c r="X19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ19">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>64</v>
       </c>
       <c r="B20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>0</v>
       </c>
       <c r="C20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>0</v>
       </c>
       <c r="D20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>0</v>
       </c>
       <c r="E20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>0</v>
       </c>
       <c r="F20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
         <v>0</v>
       </c>
       <c r="G20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
         <v>0</v>
       </c>
       <c r="H20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
         <v>0</v>
       </c>
       <c r="I20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
         <v>0</v>
       </c>
       <c r="J20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
         <v>0</v>
       </c>
       <c r="K20" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
         <v>1</v>
       </c>
       <c r="L20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
         <v>0</v>
       </c>
       <c r="M20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
         <v>0</v>
       </c>
       <c r="N20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
         <v>0</v>
       </c>
       <c r="O20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
         <v>0</v>
       </c>
       <c r="P20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
         <v>0</v>
       </c>
       <c r="S20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
         <v>0</v>
       </c>
       <c r="T20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
         <v>0</v>
       </c>
       <c r="U20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
         <v>0</v>
       </c>
       <c r="V20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
         <v>0</v>
       </c>
       <c r="W20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
         <v>0</v>
       </c>
       <c r="X20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>0</v>
       </c>
       <c r="AB20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ20">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>65</v>
       </c>
       <c r="B21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>0</v>
       </c>
       <c r="C21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>0</v>
       </c>
       <c r="D21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>0</v>
       </c>
       <c r="E21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>0</v>
       </c>
       <c r="F21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
         <v>0</v>
       </c>
       <c r="G21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
         <v>0</v>
       </c>
       <c r="H21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
         <v>0</v>
       </c>
       <c r="I21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
         <v>0</v>
       </c>
       <c r="J21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
         <v>0</v>
       </c>
       <c r="K21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
         <v>0</v>
       </c>
       <c r="L21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
         <v>0</v>
       </c>
       <c r="M21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
         <v>0</v>
       </c>
       <c r="N21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
         <v>0</v>
       </c>
       <c r="O21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
         <v>0</v>
       </c>
       <c r="P21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
         <v>0</v>
       </c>
       <c r="S21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
         <v>0</v>
       </c>
       <c r="T21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
         <v>0</v>
       </c>
       <c r="U21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
         <v>0</v>
       </c>
       <c r="V21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
         <v>0</v>
       </c>
       <c r="W21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
         <v>0</v>
       </c>
       <c r="X21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA21" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>1</v>
       </c>
       <c r="AB21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ21">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>66</v>
       </c>
       <c r="B22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
         <v>0</v>
       </c>
       <c r="C22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>0</v>
       </c>
       <c r="D22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>0</v>
       </c>
       <c r="E22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>0</v>
       </c>
       <c r="F22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
         <v>0</v>
       </c>
       <c r="G22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!G$1)</f>
         <v>0</v>
       </c>
       <c r="H22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!H$1)</f>
         <v>0</v>
       </c>
       <c r="I22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!I$1)</f>
         <v>0</v>
       </c>
       <c r="J22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!J$1)</f>
         <v>0</v>
       </c>
       <c r="K22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!K$1)</f>
         <v>0</v>
       </c>
       <c r="L22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!L$1)</f>
         <v>0</v>
       </c>
       <c r="M22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!M$1)</f>
         <v>0</v>
       </c>
       <c r="N22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!N$1)</f>
         <v>0</v>
       </c>
       <c r="O22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!O$1)</f>
         <v>0</v>
       </c>
       <c r="P22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!P$1)</f>
         <v>0</v>
       </c>
       <c r="Q22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Q$1)</f>
         <v>0</v>
       </c>
       <c r="R22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!R$1)</f>
         <v>0</v>
       </c>
       <c r="S22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!S$1)</f>
         <v>0</v>
       </c>
       <c r="T22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!T$1)</f>
         <v>0</v>
       </c>
       <c r="U22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!U$1)</f>
         <v>0</v>
       </c>
       <c r="V22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!V$1)</f>
         <v>0</v>
       </c>
       <c r="W22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!W$1)</f>
         <v>0</v>
       </c>
       <c r="X22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!X$1)</f>
         <v>0</v>
       </c>
       <c r="Y22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
         <v>0</v>
       </c>
       <c r="Z22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>0</v>
       </c>
       <c r="AA22" s="4">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
         <v>1</v>
       </c>
       <c r="AB22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
         <v>0</v>
       </c>
       <c r="AC22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AC$1)</f>
         <v>0</v>
       </c>
       <c r="AD22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AD$1)</f>
         <v>0</v>
       </c>
       <c r="AE22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AE$1)</f>
         <v>0</v>
       </c>
       <c r="AF22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AF$1)</f>
         <v>0</v>
       </c>
       <c r="AG22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AG$1)</f>
         <v>0</v>
       </c>
       <c r="AH22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AH$1)</f>
         <v>0</v>
       </c>
       <c r="AI22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AI$1)</f>
         <v>0</v>
       </c>
       <c r="AJ22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AJ$1)</f>
         <v>0</v>
       </c>
       <c r="AK22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AK$1)</f>
         <v>0</v>
       </c>
       <c r="AL22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AL$1)</f>
         <v>0</v>
       </c>
       <c r="AM22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AM$1)</f>
         <v>0</v>
       </c>
       <c r="AN22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AN$1)</f>
         <v>0</v>
       </c>
       <c r="AO22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AO$1)</f>
         <v>0</v>
       </c>
       <c r="AP22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AP$1)</f>
         <v>0</v>
       </c>
       <c r="AQ22">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AQ$1)</f>
         <v>0</v>
       </c>
     </row>

--- a/InputData/io-model/FtPICM/Fuel to Producing ISIC Code Map.xlsx
+++ b/InputData/io-model/FtPICM/Fuel to Producing ISIC Code Map.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\io-model\FtPICM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\io-model\FtPICM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6716CA9E-8FB3-4F7C-8A84-AA79007037A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17775" yWindow="3195" windowWidth="28755" windowHeight="18330"/>
+    <workbookView xWindow="-27600" yWindow="1455" windowWidth="25995" windowHeight="13605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Pre ISIC Consolidation" sheetId="3" r:id="rId2"/>
     <sheet name="FtPICM" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +29,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -268,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -651,19 +654,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,32 +674,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -708,16 +711,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AQ26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V12" sqref="A6:V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -848,7 +851,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -979,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1372,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1896,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2027,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -2420,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -2551,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -2682,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -2813,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -2944,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -3075,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -3206,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -3337,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -3599,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>73</v>
       </c>
@@ -3646,7 +3649,7 @@
       <c r="AP24" s="5"/>
       <c r="AQ24" s="5"/>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -3777,7 +3780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -3791,7 +3794,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>8</v>
@@ -3818,7 +3821,7 @@
         <v>15</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>17</v>
@@ -3833,13 +3836,13 @@
         <v>20</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>24</v>
@@ -3848,7 +3851,7 @@
         <v>25</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y26" s="3" t="s">
         <v>27</v>
@@ -3914,7 +3917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3927,13 +3930,13 @@
       <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.265625" customWidth="1"/>
-    <col min="2" max="43" width="11.3984375" customWidth="1"/>
+    <col min="1" max="1" width="26.26953125" customWidth="1"/>
+    <col min="2" max="43" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -4410,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -4583,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -4601,7 +4604,7 @@
       </c>
       <c r="E5" s="6">
         <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!F$1)</f>
@@ -4681,7 +4684,7 @@
       </c>
       <c r="Y5" s="4">
         <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Y$1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
@@ -4756,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -4929,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -5102,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -5275,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -5448,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -5621,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -5794,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -5967,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -6140,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -6313,7 +6316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -6486,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -6659,7 +6662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -6832,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -7005,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -7178,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -7351,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -7524,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>66</v>
       </c>

--- a/InputData/io-model/FtPICM/Fuel to Producing ISIC Code Map.xlsx
+++ b/InputData/io-model/FtPICM/Fuel to Producing ISIC Code Map.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\io-model\FtPICM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\io-model\FtPICM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6716CA9E-8FB3-4F7C-8A84-AA79007037A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E46D97-79AE-4627-8318-CA536CA75873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27600" yWindow="1455" windowWidth="25995" windowHeight="13605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59115" yWindow="1245" windowWidth="24240" windowHeight="13590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Pre ISIC Consolidation" sheetId="3" r:id="rId2"/>
-    <sheet name="FtPICM" sheetId="2" r:id="rId3"/>
+    <sheet name="Fuel Transport Calcs" sheetId="5" r:id="rId2"/>
+    <sheet name="Pre ISIC Consolidation" sheetId="3" r:id="rId3"/>
+    <sheet name="FtPICM" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="102">
   <si>
     <t>Source:</t>
   </si>
   <si>
-    <t>none needed</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -266,13 +264,94 @@
   </si>
   <si>
     <t>EU ISIC Groupings</t>
+  </si>
+  <si>
+    <t>We need to divide up revenue from selling "natural gas" between the</t>
+  </si>
+  <si>
+    <t>oil and gas extraction ISIC code and the "energy pipelines and gas processing"</t>
+  </si>
+  <si>
+    <t>ISIC code.</t>
+  </si>
+  <si>
+    <t>Oil and Gas Extraction Revenue</t>
+  </si>
+  <si>
+    <t>million $</t>
+  </si>
+  <si>
+    <t>Share of oil and gas revenue from natural gas</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/todayinenergy/detail.php?id=49776</t>
+  </si>
+  <si>
+    <t>Gas Revenue</t>
+  </si>
+  <si>
+    <t>Revenue received from NG distribution companies</t>
+  </si>
+  <si>
+    <t>Revenue received from pipeline transportation companies</t>
+  </si>
+  <si>
+    <t>Share of pipeline transportation revenue attributable to transport of natural gas</t>
+  </si>
+  <si>
+    <t>Total revenue for NG transport and distribution</t>
+  </si>
+  <si>
+    <t>Share of NG revenue for transport and distribution</t>
+  </si>
+  <si>
+    <t>According to the BEA "Use Table" data, no appreciable share of oil revenue goes to transport.</t>
+  </si>
+  <si>
+    <t>Therefore, we only need to split up revenue for natural gas, not for crude oil or secondary petroleum products.</t>
+  </si>
+  <si>
+    <t>Splitting natural gas revenue between production and transmission/distribution</t>
+  </si>
+  <si>
+    <t>U.S. Bureau of Economic Analysis</t>
+  </si>
+  <si>
+    <t>Input-Output Accounts Data</t>
+  </si>
+  <si>
+    <t>https://www.bea.gov/industry/input-output-accounts-data</t>
+  </si>
+  <si>
+    <t>"Use of Commodities by Industry" table, 405-industry breakdown</t>
+  </si>
+  <si>
+    <t>"energy pipelines and gas processing" ISIC code.  (We don't need to do anything similar for oil</t>
+  </si>
+  <si>
+    <t>in this variable because no appreciable portion of the revenue goes to transport, and we already assign</t>
+  </si>
+  <si>
+    <t>crude oil to extraction and secondary petroleum products to refineries, so it's already handled by</t>
+  </si>
+  <si>
+    <t>the use of different fuel types.)</t>
+  </si>
+  <si>
+    <t>We use U.S. BEA data to divide up natural gas revenue between the "oil and gas extraction" ISIC code and the</t>
+  </si>
+  <si>
+    <t>EU use table data is broken into different product &amp; industry groupings, not allowing the same level of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commodity breakdown as the U.S. file allows. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,8 +375,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +407,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -326,10 +429,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -340,10 +445,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{8DFCED53-43D2-45FB-884A-785D98AFB383}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -647,7 +763,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -655,205 +771,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="70.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="12">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{7057CE15-EA2E-42A5-913B-C44144EF70CB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE09666E-1109-4373-939A-48507479F2F3}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>683995</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>95759.3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>18217</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>8.5400000000000009</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>18225.54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
+        <v>0.19032657924608889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{A5277234-F72C-43C8-B1B2-415E053D3207}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AQ26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="A6:V12"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -984,7 +1315,7 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1115,7 +1446,7 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1123,8 +1454,9 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" s="13">
+        <f>1-AA4</f>
+        <v>0.80967342075391113</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1192,8 +1524,9 @@
       <c r="Z4">
         <v>0</v>
       </c>
-      <c r="AA4" s="4">
-        <v>1</v>
+      <c r="AA4" s="13">
+        <f>'Fuel Transport Calcs'!A27</f>
+        <v>0.19032657924608889</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1246,7 +1579,7 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1377,7 +1710,7 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1508,7 +1841,7 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1639,7 +1972,7 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1770,7 +2103,7 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -1901,7 +2234,7 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2032,7 +2365,7 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2163,7 +2496,7 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2294,7 +2627,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2425,7 +2758,7 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2556,7 +2889,7 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2687,7 +3020,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2818,7 +3151,7 @@
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2949,7 +3282,7 @@
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3080,7 +3413,7 @@
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3211,7 +3544,7 @@
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3342,7 +3675,7 @@
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3473,7 +3806,7 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3604,7 +3937,7 @@
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3651,264 +3984,264 @@
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="R25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="U25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="V25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V25" s="3" t="s">
+      <c r="W25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W25" s="3" t="s">
+      <c r="X25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X25" s="3" t="s">
+      <c r="Y25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y25" s="3" t="s">
+      <c r="Z25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z25" s="3" t="s">
+      <c r="AA25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AA25" s="3" t="s">
+      <c r="AB25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB25" s="3" t="s">
+      <c r="AC25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AC25" s="3" t="s">
+      <c r="AD25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AD25" s="3" t="s">
+      <c r="AE25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AE25" s="3" t="s">
+      <c r="AF25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AF25" s="3" t="s">
+      <c r="AG25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AG25" s="3" t="s">
+      <c r="AH25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH25" s="3" t="s">
+      <c r="AI25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AI25" s="3" t="s">
+      <c r="AJ25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AJ25" s="3" t="s">
+      <c r="AK25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AK25" s="3" t="s">
+      <c r="AL25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AL25" s="3" t="s">
+      <c r="AM25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AM25" s="3" t="s">
+      <c r="AN25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AN25" s="3" t="s">
+      <c r="AO25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AO25" s="3" t="s">
+      <c r="AP25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AP25" s="3" t="s">
+      <c r="AQ25" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="AQ25" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="R26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="3" t="s">
+      <c r="T26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="U26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="V26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="W26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W26" s="3" t="s">
+      <c r="X26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X26" s="3" t="s">
+      <c r="Y26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y26" s="3" t="s">
+      <c r="Z26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z26" s="3" t="s">
+      <c r="AA26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AA26" s="3" t="s">
+      <c r="AB26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="AC26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AE26" s="3" t="s">
+      <c r="AF26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AF26" s="3" t="s">
+      <c r="AG26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AG26" s="3" t="s">
+      <c r="AH26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH26" s="3" t="s">
+      <c r="AI26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AI26" s="3" t="s">
+      <c r="AJ26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AJ26" s="3" t="s">
+      <c r="AK26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AK26" s="3" t="s">
+      <c r="AL26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AL26" s="3" t="s">
+      <c r="AM26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AM26" s="3" t="s">
+      <c r="AN26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AN26" s="3" t="s">
+      <c r="AO26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AO26" s="3" t="s">
+      <c r="AP26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AP26" s="3" t="s">
+      <c r="AQ26" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="AQ26" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3916,7 +4249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -3924,10 +4257,10 @@
   <dimension ref="A1:AQ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
+      <selection pane="bottomRight" activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3938,138 +4271,138 @@
   <sheetData>
     <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <f>SUMIFS('Pre ISIC Consolidation'!$B2:$AQ2,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
@@ -4242,7 +4575,7 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <f>SUMIFS('Pre ISIC Consolidation'!$B3:$AQ3,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
@@ -4415,7 +4748,7 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
@@ -4425,9 +4758,9 @@
         <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!C$1)</f>
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="13">
         <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
-        <v>0</v>
+        <v>0.80967342075391113</v>
       </c>
       <c r="E4">
         <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
@@ -4517,9 +4850,9 @@
         <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!Z$1)</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4" s="13">
         <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AA$1)</f>
-        <v>1</v>
+        <v>0.19032657924608889</v>
       </c>
       <c r="AB4">
         <f>SUMIFS('Pre ISIC Consolidation'!$B4:$AQ4,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!AB$1)</f>
@@ -4588,7 +4921,7 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
@@ -4602,7 +4935,7 @@
         <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!D$1)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!E$1)</f>
         <v>1</v>
       </c>
@@ -4761,7 +5094,7 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
@@ -4934,7 +5267,7 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
@@ -5107,7 +5440,7 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
@@ -5280,7 +5613,7 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="4">
         <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
@@ -5453,7 +5786,7 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <f>SUMIFS('Pre ISIC Consolidation'!$B10:$AQ10,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
@@ -5626,7 +5959,7 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11">
         <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
@@ -5799,7 +6132,7 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <f>SUMIFS('Pre ISIC Consolidation'!$B12:$AQ12,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
@@ -5972,7 +6305,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <f>SUMIFS('Pre ISIC Consolidation'!$B13:$AQ13,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
@@ -6145,7 +6478,7 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14">
         <f>SUMIFS('Pre ISIC Consolidation'!$B14:$AQ14,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
@@ -6318,7 +6651,7 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
@@ -6491,7 +6824,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16">
         <f>SUMIFS('Pre ISIC Consolidation'!$B16:$AQ16,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
@@ -6664,7 +6997,7 @@
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17">
         <f>SUMIFS('Pre ISIC Consolidation'!$B17:$AQ17,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
@@ -6837,7 +7170,7 @@
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18">
         <f>SUMIFS('Pre ISIC Consolidation'!$B18:$AQ18,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
@@ -7010,7 +7343,7 @@
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19">
         <f>SUMIFS('Pre ISIC Consolidation'!$B19:$AQ19,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
@@ -7183,7 +7516,7 @@
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20">
         <f>SUMIFS('Pre ISIC Consolidation'!$B20:$AQ20,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
@@ -7356,7 +7689,7 @@
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21">
         <f>SUMIFS('Pre ISIC Consolidation'!$B21:$AQ21,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
@@ -7529,7 +7862,7 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22">
         <f>SUMIFS('Pre ISIC Consolidation'!$B22:$AQ22,'Pre ISIC Consolidation'!$B$26:$AQ$26,FtPICM!B$1)</f>
